--- a/需求背景.xlsx
+++ b/需求背景.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\github\PBC_group92\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="8844" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="8844" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="scenario4" sheetId="4" r:id="rId4"/>
     <sheet name="scenario5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,40 +113,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>餐廳開在著名的觀光景點附近，每天會有不同的大型旅行團造訪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兒童節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球素食日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳舉辦了為期一周的活動，希望慶祝不同的節日，也增加營業額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球素食日是一個完全不能吃肉的節日，連製作的素材都不會有任何的肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33五花肉日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳老闆喜歡講台語，決定將每天的精選餐點用台語呈現，你能看得懂並且幫幫他備料嗎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧ ㄇㄚˇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ ㄇㄚˇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄟ ㄇㄚˇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文為豬肉，英文為Pork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文為牛肉，英文為Beef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這一周天氣變化很大，有許多不一樣的天氣影響業績，好在你可以看天氣預報，再決定要被多少料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下豪大雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出炎熱的大太陽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風和日麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為午後的豪大雨，倒置顧客出門意願減少，只想待在家叫Foodpanda或Ubereats，各銷量約減少25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颱風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無風無雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒流來襲，大口大口咬下漢堡，身體有熱量去禦寒，大家喜歡到漢堡店坐在店裡享用，各銷售量約增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是個禍不單行、但也好事成雙的一周，您的餐廳遇到很多不穩定的情況，您要如何解決呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大樂透開獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日為大樂透開獎，得主就住在餐廳樓上，平常她最愛吃的就是牛肉漢堡，今天他決定拿獎金買下60個請台北車站的流浪漢吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞報導指控您的餐廳餐點不衛生，漢堡都是用組合肉，生菜也不新鮮，麵包更是都發霉了，讓業績只剩4成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到安全衛生許可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店門口道路施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對面漢堡王休息一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平凡的一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞不實報導</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒流來襲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>健身的巨巨們
 喜歡選用蛋白質較高的牛肉雞肉，若是有生同這樣碳水低的選擇，他們在愛也不過了，通常可以吃上兩份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐廳開在著名的觀光景點附近，每天會有不同的大型旅行團造訪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兒童節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球素食日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐廳舉辦了為期一周的活動，希望慶祝不同的節日，也增加營業額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球素食日是一個完全不能吃肉的節日，連製作的素材都不會有任何的肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中秋節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33五花肉日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,111 +277,11 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>情人節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐廳老闆喜歡講台語，決定將每天的精選餐點用台語呈現，你能看得懂並且幫幫他備料嗎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧ ㄇㄚˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ ㄇㄚˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄟ ㄇㄚˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文為豬肉，英文為Pork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文為牛肉，英文為Beef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這一周天氣變化很大，有許多不一樣的天氣影響業績，好在你可以看天氣預報，再決定要被多少料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下豪大雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出炎熱的大太陽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風和日麗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒流來襲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因為午後的豪大雨，倒置顧客出門意願減少，只想待在家叫Foodpanda或Ubereats，各銷量約減少25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颱風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無風無雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒流來襲，大口大口咬下漢堡，身體有熱量去禦寒，大家喜歡到漢堡店坐在店裡享用，各銷售量約增加25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這是個禍不單行、但也好事成雙的一周，您的餐廳遇到很多不穩定的情況，您要如何解決呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大樂透開獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日為大樂透開獎，得主就住在餐廳樓上，平常她最愛吃的就是牛肉漢堡，今天他決定拿獎金買下60個請台北車站的流浪漢吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新聞不實報到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新聞報導指控您的餐廳餐點不衛生，漢堡都是用組合肉，生菜也不新鮮，麵包更是都發霉了，讓業績只剩4成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿到安全衛生許可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店門口道路施工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>對面漢堡王休息一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平凡的一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,17 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +837,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -856,15 +856,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -923,15 +923,15 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="F4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1127,15 +1127,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1171,36 +1171,36 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
-        <v>29</v>
+      <c r="C4" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
-        <v>25</v>
+      <c r="F4" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1346,7 +1346,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="C10:H10" si="1">SUM(D5:D9)</f>
+        <f t="shared" ref="D10:H10" si="1">SUM(D5:D9)</f>
         <v>106</v>
       </c>
       <c r="E10" s="1">
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1392,15 +1392,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1436,16 +1436,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.35">
@@ -1453,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
-        <v>36</v>
+      <c r="F4" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1657,15 +1657,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1701,22 +1701,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
@@ -1724,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
-        <v>42</v>
+      <c r="C4" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
-        <v>45</v>
+      <c r="F4" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1928,15 +1928,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1972,22 +1972,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
@@ -1995,13 +1995,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
-        <v>48</v>
+      <c r="C4" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
-        <v>50</v>
+      <c r="F4" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>

--- a/需求背景.xlsx
+++ b/需求背景.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\github\PBC_group92\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="8844" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="8844" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="scenario4" sheetId="4" r:id="rId4"/>
     <sheet name="scenario5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,140 +113,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>餐廳開在著名的觀光景點附近，每天會有不同的大型旅行團造訪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兒童節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球素食日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐廳舉辦了為期一周的活動，希望慶祝不同的節日，也增加營業額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球素食日是一個完全不能吃肉的節日，連製作的素材都不會有任何的肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中秋節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33五花肉日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情人節</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐廳老闆喜歡講台語，決定將每天的精選餐點用台語呈現，你能看得懂並且幫幫他備料嗎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧ ㄇㄚˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ ㄇㄚˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄟ ㄇㄚˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文為豬肉，英文為Pork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文為牛肉，英文為Beef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這一周天氣變化很大，有許多不一樣的天氣影響業績，好在你可以看天氣預報，再決定要被多少料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下豪大雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出炎熱的大太陽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風和日麗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因為午後的豪大雨，倒置顧客出門意願減少，只想待在家叫Foodpanda或Ubereats，各銷量約減少25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颱風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無風無雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒流來襲，大口大口咬下漢堡，身體有熱量去禦寒，大家喜歡到漢堡店坐在店裡享用，各銷售量約增加25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這是個禍不單行、但也好事成雙的一周，您的餐廳遇到很多不穩定的情況，您要如何解決呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大樂透開獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日為大樂透開獎，得主就住在餐廳樓上，平常她最愛吃的就是牛肉漢堡，今天他決定拿獎金買下60個請台北車站的流浪漢吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新聞報導指控您的餐廳餐點不衛生，漢堡都是用組合肉，生菜也不新鮮，麵包更是都發霉了，讓業績只剩4成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿到安全衛生許可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店門口道路施工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>對面漢堡王休息一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平凡的一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新聞不實報導</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒流來襲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>健身的巨巨們
 喜歡選用蛋白質較高的牛肉雞肉，若是有生同這樣碳水低的選擇，他們在愛也不過了，通常可以吃上兩份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳開在著名的觀光景點附近，每天會有不同的大型旅行團造訪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兒童節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球素食日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳舉辦了為期一周的活動，希望慶祝不同的節日，也增加營業額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球素食日是一個完全不能吃肉的節日，連製作的素材都不會有任何的肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33五花肉日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,11 +177,111 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>情人節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳老闆喜歡講台語，決定將每天的精選餐點用台語呈現，你能看得懂並且幫幫他備料嗎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧ ㄇㄚˇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ ㄇㄚˇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄟ ㄇㄚˇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文為豬肉，英文為Pork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文為牛肉，英文為Beef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這一周天氣變化很大，有許多不一樣的天氣影響業績，好在你可以看天氣預報，再決定要被多少料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下豪大雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出炎熱的大太陽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風和日麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒流來襲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為午後的豪大雨，倒置顧客出門意願減少，只想待在家叫Foodpanda或Ubereats，各銷量約減少25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颱風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無風無雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒流來襲，大口大口咬下漢堡，身體有熱量去禦寒，大家喜歡到漢堡店坐在店裡享用，各銷售量約增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是個禍不單行、但也好事成雙的一周，您的餐廳遇到很多不穩定的情況，您要如何解決呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大樂透開獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日為大樂透開獎，得主就住在餐廳樓上，平常她最愛吃的就是牛肉漢堡，今天他決定拿獎金買下60個請台北車站的流浪漢吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞不實報到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞報導指控您的餐廳餐點不衛生，漢堡都是用組合肉，生菜也不新鮮，麵包更是都發霉了，讓業績只剩4成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到安全衛生許可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店門口道路施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對面漢堡王休息一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平凡的一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -542,17 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +837,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -856,15 +856,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -923,15 +923,15 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1127,15 +1127,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1171,36 +1171,36 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
+      <c r="C4" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>24</v>
+      <c r="F4" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1346,7 +1346,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:H10" si="1">SUM(D5:D9)</f>
+        <f t="shared" ref="C10:H10" si="1">SUM(D5:D9)</f>
         <v>106</v>
       </c>
       <c r="E10" s="1">
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1392,15 +1392,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1436,16 +1436,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.35">
@@ -1453,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
+      <c r="C4" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
+      <c r="F4" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1657,15 +1657,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1701,22 +1701,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
@@ -1724,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>42</v>
+      <c r="F4" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1928,15 +1928,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1972,22 +1972,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
@@ -1995,13 +1995,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
-        <v>45</v>
+      <c r="C4" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="13" t="s">
-        <v>46</v>
+      <c r="F4" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>

--- a/需求背景.xlsx
+++ b/需求背景.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\PBC_group92\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="8844" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="8844" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="1" r:id="rId1"/>
@@ -542,17 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -852,21 +852,21 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -918,23 +918,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="114" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="F4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -959,8 +959,11 @@
       <c r="H5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -985,8 +988,11 @@
       <c r="H6" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1011,8 +1017,11 @@
       <c r="H7" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1037,8 +1046,11 @@
       <c r="H8" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1075,11 @@
       <c r="H9" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f>SUM(B5:B9)</f>
         <v>100</v>
@@ -1092,6 +1107,10 @@
       <c r="H10" s="1">
         <f t="shared" si="2"/>
         <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SUM(B10:H10)</f>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1123,21 +1142,21 @@
     <col min="7" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1163,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1189,23 +1208,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f>SUM(B5:B9)</f>
@@ -1346,7 +1365,7 @@
         <v>107</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="C10:H10" si="1">SUM(D5:D9)</f>
+        <f t="shared" ref="D10:H10" si="1">SUM(D5:D9)</f>
         <v>106</v>
       </c>
       <c r="E10" s="1">
@@ -1364,6 +1383,10 @@
       <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SUM(B10:H10)</f>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1392,15 +1415,15 @@
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1453,12 +1476,12 @@
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="8"/>
@@ -1636,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1653,21 +1676,21 @@
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1719,23 +1742,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="114" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1839,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f>SUM(B5:B9)</f>
@@ -1894,6 +1917,10 @@
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>104</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SUM(B10:H10)</f>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -1907,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1924,21 +1951,21 @@
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1964,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1990,23 +2017,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="114" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="114" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2058,7 +2085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2084,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -2136,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f>SUM(B5:B9)</f>
@@ -2165,6 +2192,10 @@
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
+      </c>
+      <c r="J10" s="1">
+        <f>SUM(B10:H10)</f>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
